--- a/HNM TAG Analysis.xlsx
+++ b/HNM TAG Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="530" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F65F0B-4734-4A9E-93D5-8074FCCE449C}"/>
+  <xr:revisionPtr revIDLastSave="554" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB2F7EC-298C-4F30-B370-F79B1333EA97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
@@ -152,18 +152,19 @@
     <t>Oleate (mol %)</t>
   </si>
   <si>
-    <t>Sterate (mol %)</t>
-  </si>
-  <si>
     <t>Linoleate (mol %)</t>
+  </si>
+  <si>
+    <t>Palmitoleate (mol %)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -206,16 +207,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E9E80B66-BEF3-4044-829D-FDB5AEBE04C4}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00000000"/>
     </dxf>
@@ -250,8 +255,8 @@
     <tableColumn id="8" xr3:uid="{FF62F722-F722-4A53-B55C-EF9F32242AD0}" name="Intracellular TAG (umol/g of protein)">
       <calculatedColumnFormula>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4A6D4AE7-B32D-4965-AC2C-FE28874CFBFE}" name="Palmitate (mol %)" dataDxfId="0" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{02C4B157-4D58-4D9F-ACF9-BF2DAACC30B3}" name="Sterate (mol %)" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{4A6D4AE7-B32D-4965-AC2C-FE28874CFBFE}" name="Palmitate (mol %)" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" xr3:uid="{02C4B157-4D58-4D9F-ACF9-BF2DAACC30B3}" name="Palmitoleate (mol %)" dataDxfId="0" dataCellStyle="Normal 2"/>
     <tableColumn id="14" xr3:uid="{0DAB7F4C-6FA2-41A8-92AC-10B66948D508}" name="Oleate (mol %)" dataCellStyle="Normal 2"/>
     <tableColumn id="15" xr3:uid="{4ED48A69-408F-46C6-B9C0-B5BCD624A919}" name="Linoleate (mol %)" dataCellStyle="Normal 2"/>
   </tableColumns>
@@ -524,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,13 +579,13 @@
         <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
         <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -615,8 +620,8 @@
       <c r="J2" s="2">
         <v>19.107164182309425</v>
       </c>
-      <c r="K2" s="1">
-        <v>0.82645777098500284</v>
+      <c r="K2" s="3">
+        <v>0.74929477294540547</v>
       </c>
       <c r="L2" s="1">
         <v>67.528303345026856</v>
@@ -657,8 +662,8 @@
       <c r="J3" s="2">
         <v>19.227283742460404</v>
       </c>
-      <c r="K3" s="1">
-        <v>1.0501799278155373</v>
+      <c r="K3" s="3">
+        <v>0.94573563223231416</v>
       </c>
       <c r="L3" s="1">
         <v>66.90901057291471</v>
@@ -699,8 +704,8 @@
       <c r="J4" s="2">
         <v>31.870213689900861</v>
       </c>
-      <c r="K4" s="1">
-        <v>1.0120701827361509</v>
+      <c r="K4" s="3">
+        <v>1.1753645061821028</v>
       </c>
       <c r="L4" s="1">
         <v>60.576799520919153</v>
@@ -741,8 +746,8 @@
       <c r="J5" s="2">
         <v>16.96978113625309</v>
       </c>
-      <c r="K5" s="1">
-        <v>1.2750687648289889</v>
+      <c r="K5" s="3">
+        <v>1.3049120131052692</v>
       </c>
       <c r="L5" s="1">
         <v>71.048995558317728</v>
@@ -783,8 +788,8 @@
       <c r="J6" s="2">
         <v>20.031396145870961</v>
       </c>
-      <c r="K6" s="1">
-        <v>0.68352177471265929</v>
+      <c r="K6" s="3">
+        <v>1.053837033905868</v>
       </c>
       <c r="L6" s="1">
         <v>65.813364187087842</v>
@@ -825,8 +830,8 @@
       <c r="J7" s="2">
         <v>30.644032139415089</v>
       </c>
-      <c r="K7" s="1">
-        <v>1.4749266668971193</v>
+      <c r="K7" s="3">
+        <v>1.2096818554795277</v>
       </c>
       <c r="L7" s="1">
         <v>60.986842443002217</v>
@@ -867,8 +872,8 @@
       <c r="J8" s="2">
         <v>20.348151201373756</v>
       </c>
-      <c r="K8" s="1">
-        <v>2.0127271419928463</v>
+      <c r="K8" s="3">
+        <v>0.81040944271805671</v>
       </c>
       <c r="L8" s="1">
         <v>65.238587736608451</v>
@@ -909,8 +914,8 @@
       <c r="J9" s="2">
         <v>19.412637848868819</v>
       </c>
-      <c r="K9" s="1">
-        <v>1.1898537184777984</v>
+      <c r="K9" s="3">
+        <v>1.0464592762988343</v>
       </c>
       <c r="L9" s="1">
         <v>66.829050341982963</v>
@@ -951,8 +956,8 @@
       <c r="J10" s="2">
         <v>30.817450335710078</v>
       </c>
-      <c r="K10" s="1">
-        <v>1.3093238145593571</v>
+      <c r="K10" s="3">
+        <v>1.2340692571978784</v>
       </c>
       <c r="L10" s="1">
         <v>60.992464052158809</v>
@@ -993,8 +998,8 @@
       <c r="J11" s="2">
         <v>18.457803502646094</v>
       </c>
-      <c r="K11" s="1">
-        <v>1.6969061691610208</v>
+      <c r="K11" s="3">
+        <v>1.0061243118564276</v>
       </c>
       <c r="L11" s="1">
         <v>68.869832939838886</v>
@@ -1035,8 +1040,8 @@
       <c r="J12" s="2">
         <v>19.650998959010501</v>
       </c>
-      <c r="K12" s="1">
-        <v>1.1869677579431668</v>
+      <c r="K12" s="3">
+        <v>0.5080804673990752</v>
       </c>
       <c r="L12" s="1">
         <v>66.48598113864908</v>
@@ -1077,8 +1082,8 @@
       <c r="J13" s="2">
         <v>30.401111407936835</v>
       </c>
-      <c r="K13" s="1">
-        <v>1.5527847667047692</v>
+      <c r="K13" s="3">
+        <v>1.1658720647545138</v>
       </c>
       <c r="L13" s="1">
         <v>61.988297782496161</v>
@@ -1119,8 +1124,8 @@
       <c r="J14" s="2">
         <v>20.65318542241851</v>
       </c>
-      <c r="K14" s="1">
-        <v>1.6799692151356214</v>
+      <c r="K14" s="3">
+        <v>0.95008830792369137</v>
       </c>
       <c r="L14" s="1">
         <v>67.558103408788028</v>
@@ -1161,8 +1166,8 @@
       <c r="J15" s="2">
         <v>19.964824404157021</v>
       </c>
-      <c r="K15" s="1">
-        <v>0.71447028736674556</v>
+      <c r="K15" s="3">
+        <v>0.69653665071223736</v>
       </c>
       <c r="L15" s="1">
         <v>67.163577964886713</v>
@@ -1203,8 +1208,8 @@
       <c r="J16" s="2">
         <v>31.733253367894509</v>
       </c>
-      <c r="K16" s="1">
-        <v>0</v>
+      <c r="K16" s="3">
+        <v>1.0576744041859969</v>
       </c>
       <c r="L16" s="1">
         <v>61.673426902466076</v>
@@ -1245,8 +1250,8 @@
       <c r="J17" s="2">
         <v>18.351299374033808</v>
       </c>
-      <c r="K17" s="1">
-        <v>1.9546120158619824</v>
+      <c r="K17" s="3">
+        <v>0.88355592619145185</v>
       </c>
       <c r="L17" s="1">
         <v>68.822009610643974</v>
@@ -1287,8 +1292,8 @@
       <c r="J18" s="2">
         <v>19.825769305955824</v>
       </c>
-      <c r="K18" s="1">
-        <v>0.26823520658496081</v>
+      <c r="K18" s="3">
+        <v>0.62150447428625299</v>
       </c>
       <c r="L18" s="1">
         <v>67.329422055289598</v>
@@ -1329,8 +1334,8 @@
       <c r="J19" s="2">
         <v>30.827234774056627</v>
       </c>
-      <c r="K19" s="1">
-        <v>1.1879156362236185</v>
+      <c r="K19" s="3">
+        <v>0.95149915651066508</v>
       </c>
       <c r="L19" s="1">
         <v>61.725868199936578</v>
@@ -1352,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02CF51-5187-4B53-8E13-4B1ED98A1456}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,13 +1395,13 @@
         <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
         <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1431,7 +1436,7 @@
         <v>19.107164182309425</v>
       </c>
       <c r="K2">
-        <v>0.82645777098500284</v>
+        <v>0.74929477294540547</v>
       </c>
       <c r="L2">
         <v>67.528303345026856</v>
@@ -1472,7 +1477,7 @@
         <v>19.227283742460404</v>
       </c>
       <c r="K3">
-        <v>1.0501799278155373</v>
+        <v>0.94573563223231416</v>
       </c>
       <c r="L3">
         <v>66.90901057291471</v>
@@ -1513,7 +1518,7 @@
         <v>31.870213689900861</v>
       </c>
       <c r="K4">
-        <v>1.0120701827361509</v>
+        <v>1.1753645061821028</v>
       </c>
       <c r="L4">
         <v>60.576799520919153</v>
@@ -1554,7 +1559,7 @@
         <v>16.96978113625309</v>
       </c>
       <c r="K5">
-        <v>1.2750687648289889</v>
+        <v>1.3049120131052692</v>
       </c>
       <c r="L5">
         <v>71.048995558317728</v>
@@ -1595,7 +1600,7 @@
         <v>20.031396145870961</v>
       </c>
       <c r="K6">
-        <v>0.68352177471265929</v>
+        <v>1.053837033905868</v>
       </c>
       <c r="L6">
         <v>65.813364187087842</v>
@@ -1636,7 +1641,7 @@
         <v>30.644032139415089</v>
       </c>
       <c r="K7">
-        <v>1.4749266668971193</v>
+        <v>1.2096818554795277</v>
       </c>
       <c r="L7">
         <v>60.986842443002217</v>
@@ -1677,7 +1682,7 @@
         <v>20.348151201373756</v>
       </c>
       <c r="K8">
-        <v>2.0127271419928463</v>
+        <v>0.81040944271805671</v>
       </c>
       <c r="L8">
         <v>65.238587736608451</v>
@@ -1718,7 +1723,7 @@
         <v>19.412637848868819</v>
       </c>
       <c r="K9">
-        <v>1.1898537184777984</v>
+        <v>1.0464592762988343</v>
       </c>
       <c r="L9">
         <v>66.829050341982963</v>
@@ -1759,7 +1764,7 @@
         <v>30.817450335710078</v>
       </c>
       <c r="K10">
-        <v>1.3093238145593571</v>
+        <v>1.2340692571978784</v>
       </c>
       <c r="L10">
         <v>60.992464052158809</v>
@@ -1800,7 +1805,7 @@
         <v>18.457803502646094</v>
       </c>
       <c r="K11">
-        <v>1.6969061691610208</v>
+        <v>1.0061243118564276</v>
       </c>
       <c r="L11">
         <v>68.869832939838886</v>
@@ -1841,7 +1846,7 @@
         <v>19.650998959010501</v>
       </c>
       <c r="K12">
-        <v>1.1869677579431668</v>
+        <v>0.5080804673990752</v>
       </c>
       <c r="L12">
         <v>66.48598113864908</v>
@@ -1882,7 +1887,7 @@
         <v>30.401111407936835</v>
       </c>
       <c r="K13">
-        <v>1.5527847667047692</v>
+        <v>1.1658720647545138</v>
       </c>
       <c r="L13">
         <v>61.988297782496161</v>
@@ -1923,7 +1928,7 @@
         <v>20.65318542241851</v>
       </c>
       <c r="K14">
-        <v>1.6799692151356214</v>
+        <v>0.95008830792369137</v>
       </c>
       <c r="L14">
         <v>67.558103408788028</v>
@@ -1964,7 +1969,7 @@
         <v>19.964824404157021</v>
       </c>
       <c r="K15">
-        <v>0.71447028736674556</v>
+        <v>0.69653665071223736</v>
       </c>
       <c r="L15">
         <v>67.163577964886713</v>
@@ -2005,7 +2010,7 @@
         <v>31.733253367894509</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.0576744041859969</v>
       </c>
       <c r="L16">
         <v>61.673426902466076</v>
@@ -2046,7 +2051,7 @@
         <v>18.351299374033808</v>
       </c>
       <c r="K17">
-        <v>1.9546120158619824</v>
+        <v>0.88355592619145185</v>
       </c>
       <c r="L17">
         <v>68.822009610643974</v>
@@ -2087,7 +2092,7 @@
         <v>19.825769305955824</v>
       </c>
       <c r="K18">
-        <v>0.26823520658496081</v>
+        <v>0.62150447428625299</v>
       </c>
       <c r="L18">
         <v>67.329422055289598</v>
@@ -2128,7 +2133,7 @@
         <v>30.827234774056627</v>
       </c>
       <c r="K19">
-        <v>1.1879156362236185</v>
+        <v>0.95149915651066508</v>
       </c>
       <c r="L19">
         <v>61.725868199936578</v>

--- a/HNM TAG Analysis.xlsx
+++ b/HNM TAG Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="554" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB2F7EC-298C-4F30-B370-F79B1333EA97}"/>
+  <xr:revisionPtr revIDLastSave="577" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2DB1049-ECAC-4ED7-8EBE-ED949F590559}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="42">
   <si>
     <t>Round</t>
   </si>
   <si>
-    <t>Insulin (nM)</t>
-  </si>
-  <si>
     <t>Sample ID</t>
   </si>
   <si>
     <t>LC3</t>
   </si>
   <si>
-    <t>800uM OPLA</t>
-  </si>
-  <si>
-    <t>800uM POLA</t>
-  </si>
-  <si>
     <t>LC1</t>
   </si>
   <si>
@@ -125,12 +116,6 @@
     <t>High Insulin POLA</t>
   </si>
   <si>
-    <t>200uM OPLA</t>
-  </si>
-  <si>
-    <t>Fat</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -156,6 +141,27 @@
   </si>
   <si>
     <t>Palmitoleate (mol %)</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>FA_Amount</t>
+  </si>
+  <si>
+    <t>FA_Type</t>
+  </si>
+  <si>
+    <t>OPLA</t>
+  </si>
+  <si>
+    <t>POLA</t>
+  </si>
+  <si>
+    <t>200uM</t>
+  </si>
+  <si>
+    <t>800uM</t>
   </si>
 </sst>
 </file>
@@ -238,16 +244,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}" name="Table1" displayName="Table1" ref="A1:M19" totalsRowShown="0">
-  <autoFilter ref="A1:M19" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
-    <sortCondition ref="E1:E19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}" name="Table1" displayName="Table1" ref="A1:N19" totalsRowShown="0">
+  <autoFilter ref="A1:N19" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
+    <sortCondition ref="F1:F19"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{DA512A4B-BD7E-4132-917E-225A034F5220}" name="Round"/>
     <tableColumn id="2" xr3:uid="{A7ED4474-7BD1-44A8-88DF-F0DF740F631C}" name="Condition"/>
-    <tableColumn id="3" xr3:uid="{24BFD542-A364-491A-9071-8A61679D1F8D}" name="Fat"/>
-    <tableColumn id="5" xr3:uid="{68FFE866-B335-4509-8241-854F036ADF95}" name="Insulin (nM)"/>
+    <tableColumn id="3" xr3:uid="{24BFD542-A364-491A-9071-8A61679D1F8D}" name="FA_Amount"/>
+    <tableColumn id="9" xr3:uid="{A66ECDD5-81C7-41F9-967F-B4D84402DC6F}" name="FA_Type"/>
+    <tableColumn id="5" xr3:uid="{68FFE866-B335-4509-8241-854F036ADF95}" name="Insulin"/>
     <tableColumn id="20" xr3:uid="{E6DAFE54-7B82-40A1-909C-00E55FEDCAE0}" name="Order"/>
     <tableColumn id="6" xr3:uid="{20A91E84-0248-486D-A4A7-9F17B0314594}" name="Sample ID"/>
     <tableColumn id="4" xr3:uid="{A1885E10-D5A8-4484-8C19-913D54073D08}" name="Protein (mg/mL)"/>
@@ -527,820 +534,877 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>6.1569791562499994</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2520.3796416590108</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>409.35328473551078</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>19.107164182309425</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>0.74929477294540547</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>67.528303345026856</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>10.453501326236932</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>6.2314361959999998</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>3293.2479146821038</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>528.48939010176525</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>19.227283742460404</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>0.94573563223231416</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>66.90901057291471</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>10.41528408180627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.6823282312500005</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>4119.2163907828053</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>724.91700992018525</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>31.870213689900861</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>1.1753645061821028</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>60.576799520919153</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>4.7062528174141356</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
         <v>6.0222596930000005</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>1980.5110141349448</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>328.86509634199274</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>16.96978113625309</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>1.3049120131052692</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>71.048995558317728</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>9.4012425274949223</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>6.1716409700000003</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>3949.0171014280859</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>639.86500845140472</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>20.031396145870961</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>1.053837033905868</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>65.813364187087842</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>11.116638918729</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
         <v>6.4865470212499998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>4512.3645371392859</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>695.64970736460089</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>30.644032139415089</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>1.2096818554795277</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>60.986842443002217</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>4.9003088470481977</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
         <v>0.1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>6.698072860249999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>2173.7947776876654</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>324.5403301878282</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>20.348151201373756</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>0.81040944271805671</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>65.238587736608451</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>8.3038579971056183</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
         <v>0.1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
         <v>6.5467160052499995</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>4892.3634598249582</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>747.30039548097568</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>19.412637848868819</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1.0464592762988343</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>66.829050341982963</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>11.076526637359125</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
         <v>0.1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
         <v>5.845810685</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>4348.4313366578053</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>743.85428659460695</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>30.817450335710078</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1.2340692571978784</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>60.992464052158809</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>5.007812125957475</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
         <v>100</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
         <v>6.94518277325</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>2293.0762768546006</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>330.167880633263</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>18.457803502646094</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>1.0061243118564276</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>68.869832939838886</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>9.3579726215858638</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
         <v>100</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
         <v>6.7892874282499989</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>5077.1063520466687</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>747.81137279900656</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>19.650998959010501</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>0.5080804673990752</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>66.48598113864908</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>11.030425125920752</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
         <v>6.4880420532500001</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>5347.9722361407794</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>824.28137676170968</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>30.401111407936835</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>1.1658720647545138</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>61.988297782496161</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>4.8919339781077307</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
         <v>6.51647133125</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>2679.5940380973766</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>411.20322669836293</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>20.65318542241851</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>0.95008830792369137</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>67.558103408788028</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>8.6447514158730758</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
         <v>6.0372819162500004</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>5224.3657513093294</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>865.35063688965408</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>19.964824404157021</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>0.69653665071223736</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>67.163577964886713</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>11.119612171600547</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
         <v>0.1</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
         <v>5.9339017040000002</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>4812.0135697617879</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>810.93584117142427</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>31.733253367894509</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>1.0576744041859969</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>61.673426902466076</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>4.9384861785296392</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
         <v>100</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17">
         <v>6.3522013159999986</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>2517.4037175139811</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>396.30414596167083</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>18.351299374033808</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>0.88355592619145185</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>68.822009610643974</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>9.7150973154691851</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
         <v>100</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18">
         <v>6.6070985652499994</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>5665.1607046701665</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>857.43547621130551</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>19.825769305955824</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>0.62150447428625299</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>67.329422055289598</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>10.78149138004469</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
         <v>100</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19">
         <v>5.7706061292499999</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>5484.5085740714076</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>950.42157638719732</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>30.827234774056627</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>0.95149915651066508</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>61.725868199936578</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>4.7097499336921871</v>
       </c>
     </row>
@@ -1355,790 +1419,847 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02CF51-5187-4B53-8E13-4B1ED98A1456}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>6.1569791562499994</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2520.3796416590108</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>409.35328473551078</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>19.107164182309425</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.74929477294540547</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>67.528303345026856</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10.453501326236932</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>6.2314361959999998</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3293.2479146821038</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>528.48939010176525</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>19.227283742460404</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.94573563223231416</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>66.90901057291471</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>10.41528408180627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.6823282312500005</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4119.2163907828053</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>724.91700992018525</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>31.870213689900861</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.1753645061821028</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>60.576799520919153</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4.7062528174141356</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
         <v>6.0222596930000005</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1980.5110141349448</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>328.86509634199274</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>16.96978113625309</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.3049120131052692</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>71.048995558317728</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>9.4012425274949223</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>6.1716409700000003</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3949.0171014280859</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>639.86500845140472</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>20.031396145870961</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.053837033905868</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>65.813364187087842</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>11.116638918729</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
         <v>6.4865470212499998</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4512.3645371392859</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>695.64970736460089</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>30.644032139415089</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1.2096818554795277</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>60.986842443002217</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4.9003088470481977</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
         <v>0.1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>6.698072860249999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2173.7947776876654</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>324.5403301878282</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>20.348151201373756</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.81040944271805671</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>65.238587736608451</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>8.3038579971056183</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
         <v>0.1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
         <v>6.5467160052499995</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4892.3634598249582</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>747.30039548097568</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>19.412637848868819</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.0464592762988343</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>66.829050341982963</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>11.076526637359125</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
         <v>0.1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
         <v>5.845810685</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4348.4313366578053</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>743.85428659460695</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>30.817450335710078</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.2340692571978784</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>60.992464052158809</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>5.007812125957475</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
         <v>100</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
         <v>6.94518277325</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2293.0762768546006</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>330.167880633263</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>18.457803502646094</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.0061243118564276</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>68.869832939838886</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9.3579726215858638</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
         <v>100</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
         <v>6.7892874282499989</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5077.1063520466687</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>747.81137279900656</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>19.650998959010501</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.5080804673990752</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>66.48598113864908</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>11.030425125920752</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
         <v>6.4880420532500001</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5347.9722361407794</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>824.28137676170968</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>30.401111407936835</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.1658720647545138</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>61.988297782496161</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4.8919339781077307</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
         <v>6.51647133125</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2679.5940380973766</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>411.20322669836293</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>20.65318542241851</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.95008830792369137</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>67.558103408788028</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>8.6447514158730758</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
         <v>6.0372819162500004</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5224.3657513093294</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>865.35063688965408</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>19.964824404157021</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.69653665071223736</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>67.163577964886713</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>11.119612171600547</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
         <v>0.1</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
         <v>5.9339017040000002</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4812.0135697617879</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>810.93584117142427</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>31.733253367894509</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.0576744041859969</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>61.673426902466076</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4.9384861785296392</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
         <v>100</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17">
         <v>6.3522013159999986</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2517.4037175139811</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>396.30414596167083</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>18.351299374033808</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.88355592619145185</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>68.822009610643974</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>9.7150973154691851</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
         <v>100</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18">
         <v>6.6070985652499994</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5665.1607046701665</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>857.43547621130551</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>19.825769305955824</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.62150447428625299</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>67.329422055289598</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>10.78149138004469</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
         <v>100</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19">
         <v>5.7706061292499999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5484.5085740714076</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>950.42157638719732</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>30.827234774056627</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.95149915651066508</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>61.725868199936578</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>4.7097499336921871</v>
       </c>
     </row>

--- a/HNM TAG Analysis.xlsx
+++ b/HNM TAG Analysis.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="577" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2DB1049-ECAC-4ED7-8EBE-ED949F590559}"/>
+  <xr:revisionPtr revIDLastSave="579" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5103F40B-0AB1-4BD9-93E5-8161E5ACD955}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="1" r:id="rId1"/>
-    <sheet name="For R" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>Round</t>
   </si>
@@ -536,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,14 +620,14 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>6.1569791562499994</v>
+        <v>3.2089625359999996</v>
       </c>
       <c r="I2" s="1">
         <v>2520.3796416590108</v>
       </c>
       <c r="J2">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>409.35328473551078</v>
+        <v>785.41884281412842</v>
       </c>
       <c r="K2" s="2">
         <v>19.107164182309425</v>
@@ -666,14 +665,14 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>6.2314361959999998</v>
+        <v>3.2767820341249996</v>
       </c>
       <c r="I3" s="1">
         <v>3293.2479146821038</v>
       </c>
       <c r="J3">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>528.48939010176525</v>
+        <v>1005.025015513887</v>
       </c>
       <c r="K3" s="2">
         <v>19.227283742460404</v>
@@ -711,14 +710,14 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>5.6823282312500005</v>
+        <v>2.7788689039999999</v>
       </c>
       <c r="I4" s="1">
         <v>4119.2163907828053</v>
       </c>
       <c r="J4">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>724.91700992018525</v>
+        <v>1482.3356311819759</v>
       </c>
       <c r="K4" s="2">
         <v>31.870213689900861</v>
@@ -756,14 +755,14 @@
         <v>6</v>
       </c>
       <c r="H5">
-        <v>6.0222596930000005</v>
+        <v>3.087307917125</v>
       </c>
       <c r="I5" s="1">
         <v>1980.5110141349448</v>
       </c>
       <c r="J5">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>328.86509634199274</v>
+        <v>641.50096695870241</v>
       </c>
       <c r="K5" s="2">
         <v>16.96978113625309</v>
@@ -801,14 +800,14 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>6.1716409700000003</v>
+        <v>3.2225130871250003</v>
       </c>
       <c r="I6" s="1">
         <v>3949.0171014280859</v>
       </c>
       <c r="J6">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>639.86500845140472</v>
+        <v>1225.4464123685666</v>
       </c>
       <c r="K6" s="2">
         <v>20.031396145870961</v>
@@ -846,14 +845,14 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>6.4865470212499998</v>
+        <v>3.5086164124999994</v>
       </c>
       <c r="I7" s="1">
         <v>4512.3645371392859</v>
       </c>
       <c r="J7">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>695.64970736460089</v>
+        <v>1286.0808953247997</v>
       </c>
       <c r="K7" s="2">
         <v>30.644032139415089</v>
@@ -891,14 +890,14 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>6.698072860249999</v>
+        <v>3.7009871539999999</v>
       </c>
       <c r="I8" s="1">
         <v>2173.7947776876654</v>
       </c>
       <c r="J8">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>324.5403301878282</v>
+        <v>587.35539661040002</v>
       </c>
       <c r="K8" s="2">
         <v>20.348151201373756</v>
@@ -936,14 +935,14 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <v>6.5467160052499995</v>
+        <v>3.5634459964999996</v>
       </c>
       <c r="I9" s="1">
         <v>4892.3634598249582</v>
       </c>
       <c r="J9">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>747.30039548097568</v>
+        <v>1372.9304343689269</v>
       </c>
       <c r="K9" s="2">
         <v>19.412637848868819</v>
@@ -981,14 +980,14 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>5.845810685</v>
+        <v>2.9259427141250001</v>
       </c>
       <c r="I10" s="1">
         <v>4348.4313366578053</v>
       </c>
       <c r="J10">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>743.85428659460695</v>
+        <v>1486.1642080912029</v>
       </c>
       <c r="K10" s="2">
         <v>30.817450335710078</v>
@@ -1026,14 +1025,14 @@
         <v>11</v>
       </c>
       <c r="H11">
-        <v>6.94518277325</v>
+        <v>3.9224412500000003</v>
       </c>
       <c r="I11" s="1">
         <v>2293.0762768546006</v>
       </c>
       <c r="J11">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>330.167880633263</v>
+        <v>584.60436516534196</v>
       </c>
       <c r="K11" s="2">
         <v>18.457803502646094</v>
@@ -1071,14 +1070,14 @@
         <v>12</v>
       </c>
       <c r="H12">
-        <v>6.7892874282499989</v>
+        <v>3.7838322125000001</v>
       </c>
       <c r="I12" s="1">
         <v>5077.1063520466687</v>
       </c>
       <c r="J12">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>747.81137279900656</v>
+        <v>1341.7895051673538</v>
       </c>
       <c r="K12" s="2">
         <v>19.650998959010501</v>
@@ -1116,14 +1115,14 @@
         <v>13</v>
       </c>
       <c r="H13">
-        <v>6.4880420532500001</v>
+        <v>3.5086164124999994</v>
       </c>
       <c r="I13" s="1">
         <v>5347.9722361407794</v>
       </c>
       <c r="J13">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>824.28137676170968</v>
+        <v>1524.239645316537</v>
       </c>
       <c r="K13" s="2">
         <v>30.401111407936835</v>
@@ -1161,14 +1160,14 @@
         <v>14</v>
       </c>
       <c r="H14">
-        <v>6.51647133125</v>
+        <v>3.536017856</v>
       </c>
       <c r="I14" s="1">
         <v>2679.5940380973766</v>
       </c>
       <c r="J14">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>411.20322669836293</v>
+        <v>757.7999170876858</v>
       </c>
       <c r="K14" s="2">
         <v>20.65318542241851</v>
@@ -1206,14 +1205,14 @@
         <v>15</v>
       </c>
       <c r="H15">
-        <v>6.0372819162500004</v>
+        <v>3.1007984</v>
       </c>
       <c r="I15" s="1">
         <v>5224.3657513093294</v>
       </c>
       <c r="J15">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>865.35063688965408</v>
+        <v>1684.8453454146936</v>
       </c>
       <c r="K15" s="2">
         <v>19.964824404157021</v>
@@ -1251,14 +1250,14 @@
         <v>16</v>
       </c>
       <c r="H16">
-        <v>5.9339017040000002</v>
+        <v>3.0065051791249999</v>
       </c>
       <c r="I16" s="1">
         <v>4812.0135697617879</v>
       </c>
       <c r="J16">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>810.93584117142427</v>
+        <v>1600.5339366028484</v>
       </c>
       <c r="K16" s="2">
         <v>31.733253367894509</v>
@@ -1296,14 +1295,14 @@
         <v>17</v>
       </c>
       <c r="H17">
-        <v>6.3522013159999986</v>
+        <v>3.3856402921249993</v>
       </c>
       <c r="I17" s="1">
         <v>2517.4037175139811</v>
       </c>
       <c r="J17">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>396.30414596167083</v>
+        <v>743.55321307153133</v>
       </c>
       <c r="K17" s="2">
         <v>18.351299374033808</v>
@@ -1341,14 +1340,14 @@
         <v>18</v>
       </c>
       <c r="H18">
-        <v>6.6070985652499994</v>
+        <v>3.6183823684999998</v>
       </c>
       <c r="I18" s="1">
         <v>5665.1607046701665</v>
       </c>
       <c r="J18">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>857.43547621130551</v>
+        <v>1565.661151233903</v>
       </c>
       <c r="K18" s="2">
         <v>19.825769305955824</v>
@@ -1386,14 +1385,14 @@
         <v>19</v>
       </c>
       <c r="H19">
-        <v>5.7706061292499999</v>
+        <v>2.8589908684999998</v>
       </c>
       <c r="I19" s="1">
         <v>5484.5085740714076</v>
       </c>
       <c r="J19">
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>950.42157638719732</v>
+        <v>1918.3372127903694</v>
       </c>
       <c r="K19" s="2">
         <v>30.827234774056627</v>
@@ -1415,855 +1414,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B02CF51-5187-4B53-8E13-4B1ED98A1456}">
-  <dimension ref="A1:N19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2">
-        <v>0.1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>6.1569791562499994</v>
-      </c>
-      <c r="I2">
-        <v>2520.3796416590108</v>
-      </c>
-      <c r="J2">
-        <v>409.35328473551078</v>
-      </c>
-      <c r="K2">
-        <v>19.107164182309425</v>
-      </c>
-      <c r="L2">
-        <v>0.74929477294540547</v>
-      </c>
-      <c r="M2">
-        <v>67.528303345026856</v>
-      </c>
-      <c r="N2">
-        <v>10.453501326236932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>6.2314361959999998</v>
-      </c>
-      <c r="I3">
-        <v>3293.2479146821038</v>
-      </c>
-      <c r="J3">
-        <v>528.48939010176525</v>
-      </c>
-      <c r="K3">
-        <v>19.227283742460404</v>
-      </c>
-      <c r="L3">
-        <v>0.94573563223231416</v>
-      </c>
-      <c r="M3">
-        <v>66.90901057291471</v>
-      </c>
-      <c r="N3">
-        <v>10.41528408180627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5.6823282312500005</v>
-      </c>
-      <c r="I4">
-        <v>4119.2163907828053</v>
-      </c>
-      <c r="J4">
-        <v>724.91700992018525</v>
-      </c>
-      <c r="K4">
-        <v>31.870213689900861</v>
-      </c>
-      <c r="L4">
-        <v>1.1753645061821028</v>
-      </c>
-      <c r="M4">
-        <v>60.576799520919153</v>
-      </c>
-      <c r="N4">
-        <v>4.7062528174141356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>6.0222596930000005</v>
-      </c>
-      <c r="I5">
-        <v>1980.5110141349448</v>
-      </c>
-      <c r="J5">
-        <v>328.86509634199274</v>
-      </c>
-      <c r="K5">
-        <v>16.96978113625309</v>
-      </c>
-      <c r="L5">
-        <v>1.3049120131052692</v>
-      </c>
-      <c r="M5">
-        <v>71.048995558317728</v>
-      </c>
-      <c r="N5">
-        <v>9.4012425274949223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>6.1716409700000003</v>
-      </c>
-      <c r="I6">
-        <v>3949.0171014280859</v>
-      </c>
-      <c r="J6">
-        <v>639.86500845140472</v>
-      </c>
-      <c r="K6">
-        <v>20.031396145870961</v>
-      </c>
-      <c r="L6">
-        <v>1.053837033905868</v>
-      </c>
-      <c r="M6">
-        <v>65.813364187087842</v>
-      </c>
-      <c r="N6">
-        <v>11.116638918729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>6.4865470212499998</v>
-      </c>
-      <c r="I7">
-        <v>4512.3645371392859</v>
-      </c>
-      <c r="J7">
-        <v>695.64970736460089</v>
-      </c>
-      <c r="K7">
-        <v>30.644032139415089</v>
-      </c>
-      <c r="L7">
-        <v>1.2096818554795277</v>
-      </c>
-      <c r="M7">
-        <v>60.986842443002217</v>
-      </c>
-      <c r="N7">
-        <v>4.9003088470481977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>6.698072860249999</v>
-      </c>
-      <c r="I8">
-        <v>2173.7947776876654</v>
-      </c>
-      <c r="J8">
-        <v>324.5403301878282</v>
-      </c>
-      <c r="K8">
-        <v>20.348151201373756</v>
-      </c>
-      <c r="L8">
-        <v>0.81040944271805671</v>
-      </c>
-      <c r="M8">
-        <v>65.238587736608451</v>
-      </c>
-      <c r="N8">
-        <v>8.3038579971056183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>0.1</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>6.5467160052499995</v>
-      </c>
-      <c r="I9">
-        <v>4892.3634598249582</v>
-      </c>
-      <c r="J9">
-        <v>747.30039548097568</v>
-      </c>
-      <c r="K9">
-        <v>19.412637848868819</v>
-      </c>
-      <c r="L9">
-        <v>1.0464592762988343</v>
-      </c>
-      <c r="M9">
-        <v>66.829050341982963</v>
-      </c>
-      <c r="N9">
-        <v>11.076526637359125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10">
-        <v>0.1</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>5.845810685</v>
-      </c>
-      <c r="I10">
-        <v>4348.4313366578053</v>
-      </c>
-      <c r="J10">
-        <v>743.85428659460695</v>
-      </c>
-      <c r="K10">
-        <v>30.817450335710078</v>
-      </c>
-      <c r="L10">
-        <v>1.2340692571978784</v>
-      </c>
-      <c r="M10">
-        <v>60.992464052158809</v>
-      </c>
-      <c r="N10">
-        <v>5.007812125957475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>6.94518277325</v>
-      </c>
-      <c r="I11">
-        <v>2293.0762768546006</v>
-      </c>
-      <c r="J11">
-        <v>330.167880633263</v>
-      </c>
-      <c r="K11">
-        <v>18.457803502646094</v>
-      </c>
-      <c r="L11">
-        <v>1.0061243118564276</v>
-      </c>
-      <c r="M11">
-        <v>68.869832939838886</v>
-      </c>
-      <c r="N11">
-        <v>9.3579726215858638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>6.7892874282499989</v>
-      </c>
-      <c r="I12">
-        <v>5077.1063520466687</v>
-      </c>
-      <c r="J12">
-        <v>747.81137279900656</v>
-      </c>
-      <c r="K12">
-        <v>19.650998959010501</v>
-      </c>
-      <c r="L12">
-        <v>0.5080804673990752</v>
-      </c>
-      <c r="M12">
-        <v>66.48598113864908</v>
-      </c>
-      <c r="N12">
-        <v>11.030425125920752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>6.4880420532500001</v>
-      </c>
-      <c r="I13">
-        <v>5347.9722361407794</v>
-      </c>
-      <c r="J13">
-        <v>824.28137676170968</v>
-      </c>
-      <c r="K13">
-        <v>30.401111407936835</v>
-      </c>
-      <c r="L13">
-        <v>1.1658720647545138</v>
-      </c>
-      <c r="M13">
-        <v>61.988297782496161</v>
-      </c>
-      <c r="N13">
-        <v>4.8919339781077307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14">
-        <v>0.1</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14">
-        <v>6.51647133125</v>
-      </c>
-      <c r="I14">
-        <v>2679.5940380973766</v>
-      </c>
-      <c r="J14">
-        <v>411.20322669836293</v>
-      </c>
-      <c r="K14">
-        <v>20.65318542241851</v>
-      </c>
-      <c r="L14">
-        <v>0.95008830792369137</v>
-      </c>
-      <c r="M14">
-        <v>67.558103408788028</v>
-      </c>
-      <c r="N14">
-        <v>8.6447514158730758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15">
-        <v>0.1</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15">
-        <v>6.0372819162500004</v>
-      </c>
-      <c r="I15">
-        <v>5224.3657513093294</v>
-      </c>
-      <c r="J15">
-        <v>865.35063688965408</v>
-      </c>
-      <c r="K15">
-        <v>19.964824404157021</v>
-      </c>
-      <c r="L15">
-        <v>0.69653665071223736</v>
-      </c>
-      <c r="M15">
-        <v>67.163577964886713</v>
-      </c>
-      <c r="N15">
-        <v>11.119612171600547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16">
-        <v>0.1</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>5.9339017040000002</v>
-      </c>
-      <c r="I16">
-        <v>4812.0135697617879</v>
-      </c>
-      <c r="J16">
-        <v>810.93584117142427</v>
-      </c>
-      <c r="K16">
-        <v>31.733253367894509</v>
-      </c>
-      <c r="L16">
-        <v>1.0576744041859969</v>
-      </c>
-      <c r="M16">
-        <v>61.673426902466076</v>
-      </c>
-      <c r="N16">
-        <v>4.9384861785296392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17">
-        <v>6.3522013159999986</v>
-      </c>
-      <c r="I17">
-        <v>2517.4037175139811</v>
-      </c>
-      <c r="J17">
-        <v>396.30414596167083</v>
-      </c>
-      <c r="K17">
-        <v>18.351299374033808</v>
-      </c>
-      <c r="L17">
-        <v>0.88355592619145185</v>
-      </c>
-      <c r="M17">
-        <v>68.822009610643974</v>
-      </c>
-      <c r="N17">
-        <v>9.7150973154691851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18">
-        <v>6.6070985652499994</v>
-      </c>
-      <c r="I18">
-        <v>5665.1607046701665</v>
-      </c>
-      <c r="J18">
-        <v>857.43547621130551</v>
-      </c>
-      <c r="K18">
-        <v>19.825769305955824</v>
-      </c>
-      <c r="L18">
-        <v>0.62150447428625299</v>
-      </c>
-      <c r="M18">
-        <v>67.329422055289598</v>
-      </c>
-      <c r="N18">
-        <v>10.78149138004469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19">
-        <v>5.7706061292499999</v>
-      </c>
-      <c r="I19">
-        <v>5484.5085740714076</v>
-      </c>
-      <c r="J19">
-        <v>950.42157638719732</v>
-      </c>
-      <c r="K19">
-        <v>30.827234774056627</v>
-      </c>
-      <c r="L19">
-        <v>0.95149915651066508</v>
-      </c>
-      <c r="M19">
-        <v>61.725868199936578</v>
-      </c>
-      <c r="N19">
-        <v>4.7097499336921871</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/HNM TAG Analysis.xlsx
+++ b/HNM TAG Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="579" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5103F40B-0AB1-4BD9-93E5-8161E5ACD955}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D570C1F2-A86A-4A0F-9CCE-8CF324065A0B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>Round</t>
   </si>
@@ -127,21 +127,6 @@
     <t>Uncorrected Intracellular TAG (umol/L)</t>
   </si>
   <si>
-    <t>Intracellular TAG (umol/g of protein)</t>
-  </si>
-  <si>
-    <t>Palmitate (mol %)</t>
-  </si>
-  <si>
-    <t>Oleate (mol %)</t>
-  </si>
-  <si>
-    <t>Linoleate (mol %)</t>
-  </si>
-  <si>
-    <t>Palmitoleate (mol %)</t>
-  </si>
-  <si>
     <t>Insulin</t>
   </si>
   <si>
@@ -161,15 +146,26 @@
   </si>
   <si>
     <t>800uM</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>Oleate</t>
+  </si>
+  <si>
+    <t>Palmitate</t>
+  </si>
+  <si>
+    <t>Linoleate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -212,20 +208,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E9E80B66-BEF3-4044-829D-FDB5AEBE04C4}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000000"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00000000"/>
     </dxf>
@@ -242,13 +234,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}" name="Table1" displayName="Table1" ref="A1:N19" totalsRowShown="0">
-  <autoFilter ref="A1:N19" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}" name="Table1" displayName="Table1" ref="A1:M19" totalsRowShown="0">
+  <autoFilter ref="A1:M19" xr:uid="{FBE03662-43CB-42C1-A8B8-67AC459D2C7F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
     <sortCondition ref="F1:F19"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DA512A4B-BD7E-4132-917E-225A034F5220}" name="Round"/>
     <tableColumn id="2" xr3:uid="{A7ED4474-7BD1-44A8-88DF-F0DF740F631C}" name="Condition"/>
     <tableColumn id="3" xr3:uid="{24BFD542-A364-491A-9071-8A61679D1F8D}" name="FA_Amount"/>
@@ -258,13 +254,12 @@
     <tableColumn id="6" xr3:uid="{20A91E84-0248-486D-A4A7-9F17B0314594}" name="Sample ID"/>
     <tableColumn id="4" xr3:uid="{A1885E10-D5A8-4484-8C19-913D54073D08}" name="Protein (mg/mL)"/>
     <tableColumn id="7" xr3:uid="{FBDF15A6-2AE5-4DBC-B7BD-DA9AB756E5CA}" name="Uncorrected Intracellular TAG (umol/L)" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{FF62F722-F722-4A53-B55C-EF9F32242AD0}" name="Intracellular TAG (umol/g of protein)">
+    <tableColumn id="8" xr3:uid="{FF62F722-F722-4A53-B55C-EF9F32242AD0}" name="TAG">
       <calculatedColumnFormula>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4A6D4AE7-B32D-4965-AC2C-FE28874CFBFE}" name="Palmitate (mol %)" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{02C4B157-4D58-4D9F-ACF9-BF2DAACC30B3}" name="Palmitoleate (mol %)" dataDxfId="0" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" xr3:uid="{0DAB7F4C-6FA2-41A8-92AC-10B66948D508}" name="Oleate (mol %)" dataCellStyle="Normal 2"/>
-    <tableColumn id="15" xr3:uid="{4ED48A69-408F-46C6-B9C0-B5BCD624A919}" name="Linoleate (mol %)" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{0DAB7F4C-6FA2-41A8-92AC-10B66948D508}" name="Oleate" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{2D0F17A5-B442-43B8-9DF5-A7B9A9CBEADF}" name="Palmitate" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{4ED48A69-408F-46C6-B9C0-B5BCD624A919}" name="Linoleate" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -533,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,12 +543,11 @@
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="27.140625" customWidth="1"/>
     <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,13 +555,13 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -582,22 +576,19 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -605,10 +596,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -629,20 +620,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>785.41884281412842</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
+        <v>67.528303345026856</v>
+      </c>
+      <c r="L2" s="2">
         <v>19.107164182309425</v>
       </c>
-      <c r="L2" s="3">
-        <v>0.74929477294540547</v>
-      </c>
       <c r="M2" s="1">
-        <v>67.528303345026856</v>
-      </c>
-      <c r="N2" s="1">
         <v>10.453501326236932</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -650,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0.1</v>
@@ -674,20 +662,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1005.025015513887</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
+        <v>66.90901057291471</v>
+      </c>
+      <c r="L3" s="2">
         <v>19.227283742460404</v>
       </c>
-      <c r="L3" s="3">
-        <v>0.94573563223231416</v>
-      </c>
       <c r="M3" s="1">
-        <v>66.90901057291471</v>
-      </c>
-      <c r="N3" s="1">
         <v>10.41528408180627</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -695,10 +680,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -719,20 +704,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1482.3356311819759</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
+        <v>60.576799520919153</v>
+      </c>
+      <c r="L4" s="2">
         <v>31.870213689900861</v>
       </c>
-      <c r="L4" s="3">
-        <v>1.1753645061821028</v>
-      </c>
       <c r="M4" s="1">
-        <v>60.576799520919153</v>
-      </c>
-      <c r="N4" s="1">
         <v>4.7062528174141356</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -740,10 +722,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -764,20 +746,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>641.50096695870241</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
+        <v>71.048995558317728</v>
+      </c>
+      <c r="L5" s="2">
         <v>16.96978113625309</v>
       </c>
-      <c r="L5" s="3">
-        <v>1.3049120131052692</v>
-      </c>
       <c r="M5" s="1">
-        <v>71.048995558317728</v>
-      </c>
-      <c r="N5" s="1">
         <v>9.4012425274949223</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -785,10 +764,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -809,20 +788,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1225.4464123685666</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
+        <v>65.813364187087842</v>
+      </c>
+      <c r="L6" s="2">
         <v>20.031396145870961</v>
       </c>
-      <c r="L6" s="3">
-        <v>1.053837033905868</v>
-      </c>
       <c r="M6" s="1">
-        <v>65.813364187087842</v>
-      </c>
-      <c r="N6" s="1">
         <v>11.116638918729</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -830,10 +806,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -854,20 +830,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1286.0808953247997</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
+        <v>60.986842443002217</v>
+      </c>
+      <c r="L7" s="2">
         <v>30.644032139415089</v>
       </c>
-      <c r="L7" s="3">
-        <v>1.2096818554795277</v>
-      </c>
       <c r="M7" s="1">
-        <v>60.986842443002217</v>
-      </c>
-      <c r="N7" s="1">
         <v>4.9003088470481977</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -875,10 +848,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -899,20 +872,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>587.35539661040002</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
+        <v>65.238587736608451</v>
+      </c>
+      <c r="L8" s="2">
         <v>20.348151201373756</v>
       </c>
-      <c r="L8" s="3">
-        <v>0.81040944271805671</v>
-      </c>
       <c r="M8" s="1">
-        <v>65.238587736608451</v>
-      </c>
-      <c r="N8" s="1">
         <v>8.3038579971056183</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -920,10 +890,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0.1</v>
@@ -944,20 +914,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1372.9304343689269</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
+        <v>66.829050341982963</v>
+      </c>
+      <c r="L9" s="2">
         <v>19.412637848868819</v>
       </c>
-      <c r="L9" s="3">
-        <v>1.0464592762988343</v>
-      </c>
       <c r="M9" s="1">
-        <v>66.829050341982963</v>
-      </c>
-      <c r="N9" s="1">
         <v>11.076526637359125</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -965,10 +932,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0.1</v>
@@ -989,20 +956,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1486.1642080912029</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
+        <v>60.992464052158809</v>
+      </c>
+      <c r="L10" s="2">
         <v>30.817450335710078</v>
       </c>
-      <c r="L10" s="3">
-        <v>1.2340692571978784</v>
-      </c>
       <c r="M10" s="1">
-        <v>60.992464052158809</v>
-      </c>
-      <c r="N10" s="1">
         <v>5.007812125957475</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1010,10 +974,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1034,20 +998,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>584.60436516534196</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
+        <v>68.869832939838886</v>
+      </c>
+      <c r="L11" s="2">
         <v>18.457803502646094</v>
       </c>
-      <c r="L11" s="3">
-        <v>1.0061243118564276</v>
-      </c>
       <c r="M11" s="1">
-        <v>68.869832939838886</v>
-      </c>
-      <c r="N11" s="1">
         <v>9.3579726215858638</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1055,10 +1016,10 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1079,20 +1040,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1341.7895051673538</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
+        <v>66.48598113864908</v>
+      </c>
+      <c r="L12" s="2">
         <v>19.650998959010501</v>
       </c>
-      <c r="L12" s="3">
-        <v>0.5080804673990752</v>
-      </c>
       <c r="M12" s="1">
-        <v>66.48598113864908</v>
-      </c>
-      <c r="N12" s="1">
         <v>11.030425125920752</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1100,10 +1058,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1124,20 +1082,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1524.239645316537</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
+        <v>61.988297782496161</v>
+      </c>
+      <c r="L13" s="2">
         <v>30.401111407936835</v>
       </c>
-      <c r="L13" s="3">
-        <v>1.1658720647545138</v>
-      </c>
       <c r="M13" s="1">
-        <v>61.988297782496161</v>
-      </c>
-      <c r="N13" s="1">
         <v>4.8919339781077307</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1145,10 +1100,10 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0.1</v>
@@ -1169,20 +1124,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>757.7999170876858</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
+        <v>67.558103408788028</v>
+      </c>
+      <c r="L14" s="2">
         <v>20.65318542241851</v>
       </c>
-      <c r="L14" s="3">
-        <v>0.95008830792369137</v>
-      </c>
       <c r="M14" s="1">
-        <v>67.558103408788028</v>
-      </c>
-      <c r="N14" s="1">
         <v>8.6447514158730758</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1190,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0.1</v>
@@ -1214,20 +1166,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1684.8453454146936</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
+        <v>67.163577964886713</v>
+      </c>
+      <c r="L15" s="2">
         <v>19.964824404157021</v>
       </c>
-      <c r="L15" s="3">
-        <v>0.69653665071223736</v>
-      </c>
       <c r="M15" s="1">
-        <v>67.163577964886713</v>
-      </c>
-      <c r="N15" s="1">
         <v>11.119612171600547</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1235,10 +1184,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0.1</v>
@@ -1259,20 +1208,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1600.5339366028484</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
+        <v>61.673426902466076</v>
+      </c>
+      <c r="L16" s="2">
         <v>31.733253367894509</v>
       </c>
-      <c r="L16" s="3">
-        <v>1.0576744041859969</v>
-      </c>
       <c r="M16" s="1">
-        <v>61.673426902466076</v>
-      </c>
-      <c r="N16" s="1">
         <v>4.9384861785296392</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1280,10 +1226,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -1304,20 +1250,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>743.55321307153133</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
+        <v>68.822009610643974</v>
+      </c>
+      <c r="L17" s="2">
         <v>18.351299374033808</v>
       </c>
-      <c r="L17" s="3">
-        <v>0.88355592619145185</v>
-      </c>
       <c r="M17" s="1">
-        <v>68.822009610643974</v>
-      </c>
-      <c r="N17" s="1">
         <v>9.7150973154691851</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1325,10 +1268,10 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -1349,20 +1292,17 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1565.661151233903</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
+        <v>67.329422055289598</v>
+      </c>
+      <c r="L18" s="2">
         <v>19.825769305955824</v>
       </c>
-      <c r="L18" s="3">
-        <v>0.62150447428625299</v>
-      </c>
       <c r="M18" s="1">
-        <v>67.329422055289598</v>
-      </c>
-      <c r="N18" s="1">
         <v>10.78149138004469</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1370,10 +1310,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1394,16 +1334,13 @@
         <f>Table1[[#This Row],[Uncorrected Intracellular TAG (umol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1918.3372127903694</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
+        <v>61.725868199936578</v>
+      </c>
+      <c r="L19" s="2">
         <v>30.827234774056627</v>
       </c>
-      <c r="L19" s="3">
-        <v>0.95149915651066508</v>
-      </c>
       <c r="M19" s="1">
-        <v>61.725868199936578</v>
-      </c>
-      <c r="N19" s="1">
         <v>4.7097499336921871</v>
       </c>
     </row>
